--- a/biology/Médecine/Académie_de_nutrition_et_de_diététique/Académie_de_nutrition_et_de_diététique.xlsx
+++ b/biology/Médecine/Académie_de_nutrition_et_de_diététique/Académie_de_nutrition_et_de_diététique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_nutrition_et_de_di%C3%A9t%C3%A9tique</t>
+          <t>Académie_de_nutrition_et_de_diététique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Académie de nutrition et de diététique (Academy of Nutrition and Dietetics) est la plus grande association de nutritionnistes avec plus de 100 000 membres[1].
-Autrefois connue sous le nom d'Association américaine de diétiétique (American Dietetic Association), l'organisation change de nom en janvier 2012[2] pour devenir l'AND. Fondée en 1917 à Cleveland, Ohio, par un groupe de femmes conduit par Lenna F. Cooper et sa première présidente, Lulu G. Graves, elle a maintenant son siège à Chicago, Illinois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Académie de nutrition et de diététique (Academy of Nutrition and Dietetics) est la plus grande association de nutritionnistes avec plus de 100 000 membres.
+Autrefois connue sous le nom d'Association américaine de diétiétique (American Dietetic Association), l'organisation change de nom en janvier 2012 pour devenir l'AND. Fondée en 1917 à Cleveland, Ohio, par un groupe de femmes conduit par Lenna F. Cooper et sa première présidente, Lulu G. Graves, elle a maintenant son siège à Chicago, Illinois.
 </t>
         </is>
       </c>
